--- a/0_data/9_evaluation/plagiarism_analysis.xlsx
+++ b/0_data/9_evaluation/plagiarism_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,52 +446,82 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>a1_50</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>a2 within original</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>a2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>a2_50</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>a3 within original</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>a3</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>a3_50</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>b within original</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>b_50</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>c within original</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>c_50</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>d within original</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>d</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>d_50</t>
         </is>
       </c>
     </row>
@@ -502,40 +532,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442</v>
+        <v>1102</v>
       </c>
       <c r="C2" t="n">
-        <v>325</v>
+        <v>1034</v>
       </c>
       <c r="D2" t="n">
-        <v>259</v>
+        <v>798</v>
       </c>
       <c r="E2" t="n">
-        <v>190</v>
+        <v>676</v>
       </c>
       <c r="F2" t="n">
-        <v>775</v>
+        <v>552</v>
       </c>
       <c r="G2" t="n">
-        <v>669</v>
+        <v>363</v>
       </c>
       <c r="H2" t="n">
-        <v>769</v>
+        <v>2030</v>
       </c>
       <c r="I2" t="n">
-        <v>656</v>
+        <v>1577</v>
       </c>
       <c r="J2" t="n">
-        <v>442</v>
+        <v>2759</v>
       </c>
       <c r="K2" t="n">
-        <v>493</v>
+        <v>1102</v>
       </c>
       <c r="L2" t="n">
+        <v>888</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1025</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1102</v>
+      </c>
+      <c r="O2" t="n">
+        <v>661</v>
+      </c>
+      <c r="P2" t="n">
+        <v>759</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1347</v>
       </c>
-      <c r="M2" t="n">
-        <v>1184</v>
+      <c r="R2" t="n">
+        <v>714</v>
+      </c>
+      <c r="S2" t="n">
+        <v>849</v>
       </c>
     </row>
     <row r="3">
@@ -557,13 +605,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -575,10 +623,28 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +654,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44926</v>
+        <v>126055</v>
       </c>
       <c r="C4" t="n">
-        <v>36279</v>
+        <v>107943</v>
       </c>
       <c r="D4" t="n">
-        <v>44926</v>
+        <v>107136</v>
       </c>
       <c r="E4" t="n">
-        <v>32755</v>
+        <v>126055</v>
       </c>
       <c r="F4" t="n">
-        <v>54958</v>
+        <v>96640</v>
       </c>
       <c r="G4" t="n">
-        <v>45672</v>
+        <v>88097</v>
       </c>
       <c r="H4" t="n">
-        <v>85606</v>
+        <v>149389</v>
       </c>
       <c r="I4" t="n">
-        <v>62159</v>
+        <v>131396</v>
       </c>
       <c r="J4" t="n">
-        <v>48402</v>
+        <v>157295</v>
       </c>
       <c r="K4" t="n">
-        <v>41771</v>
+        <v>126055</v>
       </c>
       <c r="L4" t="n">
+        <v>99937</v>
+      </c>
+      <c r="M4" t="n">
+        <v>116055</v>
+      </c>
+      <c r="N4" t="n">
+        <v>126055</v>
+      </c>
+      <c r="O4" t="n">
+        <v>102786</v>
+      </c>
+      <c r="P4" t="n">
+        <v>107617</v>
+      </c>
+      <c r="Q4" t="n">
         <v>149389</v>
       </c>
-      <c r="M4" t="n">
-        <v>117004</v>
+      <c r="R4" t="n">
+        <v>111663</v>
+      </c>
+      <c r="S4" t="n">
+        <v>105303</v>
       </c>
     </row>
     <row r="5">
@@ -637,16 +721,16 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
@@ -658,12 +742,30 @@
         <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
         <v>3</v>
       </c>
       <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -674,40 +776,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13812</v>
+        <v>10789</v>
       </c>
       <c r="C6" t="n">
-        <v>11775</v>
+        <v>11097</v>
       </c>
       <c r="D6" t="n">
-        <v>9360</v>
+        <v>10863</v>
       </c>
       <c r="E6" t="n">
-        <v>5813</v>
+        <v>7310</v>
       </c>
       <c r="F6" t="n">
-        <v>20970</v>
+        <v>6341</v>
       </c>
       <c r="G6" t="n">
-        <v>17853</v>
+        <v>4983</v>
       </c>
       <c r="H6" t="n">
-        <v>12029</v>
+        <v>15872</v>
       </c>
       <c r="I6" t="n">
-        <v>10950</v>
+        <v>14475</v>
       </c>
       <c r="J6" t="n">
-        <v>12772</v>
+        <v>21338</v>
       </c>
       <c r="K6" t="n">
-        <v>13628</v>
+        <v>10789</v>
       </c>
       <c r="L6" t="n">
+        <v>9434</v>
+      </c>
+      <c r="M6" t="n">
+        <v>12125</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10789</v>
+      </c>
+      <c r="O6" t="n">
+        <v>9809</v>
+      </c>
+      <c r="P6" t="n">
+        <v>10268</v>
+      </c>
+      <c r="Q6" t="n">
         <v>10977</v>
       </c>
-      <c r="M6" t="n">
-        <v>9875</v>
+      <c r="R6" t="n">
+        <v>8521</v>
+      </c>
+      <c r="S6" t="n">
+        <v>7881</v>
       </c>
     </row>
     <row r="7">
@@ -717,31 +837,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
@@ -750,6 +870,24 @@
         <v>2</v>
       </c>
       <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="n">
         <v>2</v>
       </c>
     </row>

--- a/0_data/9_evaluation/plagiarism_analysis.xlsx
+++ b/0_data/9_evaluation/plagiarism_analysis.xlsx
@@ -532,58 +532,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1102</v>
+        <v>362</v>
       </c>
       <c r="C2" t="n">
-        <v>1034</v>
+        <v>237</v>
       </c>
       <c r="D2" t="n">
-        <v>798</v>
+        <v>153</v>
       </c>
       <c r="E2" t="n">
-        <v>676</v>
+        <v>199</v>
       </c>
       <c r="F2" t="n">
-        <v>552</v>
+        <v>137</v>
       </c>
       <c r="G2" t="n">
-        <v>363</v>
+        <v>103</v>
       </c>
       <c r="H2" t="n">
-        <v>2030</v>
+        <v>601</v>
       </c>
       <c r="I2" t="n">
-        <v>1577</v>
+        <v>614</v>
       </c>
       <c r="J2" t="n">
-        <v>2759</v>
+        <v>594</v>
       </c>
       <c r="K2" t="n">
-        <v>1102</v>
+        <v>683</v>
       </c>
       <c r="L2" t="n">
-        <v>888</v>
+        <v>528</v>
       </c>
       <c r="M2" t="n">
-        <v>1025</v>
+        <v>569</v>
       </c>
       <c r="N2" t="n">
-        <v>1102</v>
+        <v>424</v>
       </c>
       <c r="O2" t="n">
-        <v>661</v>
+        <v>442</v>
       </c>
       <c r="P2" t="n">
-        <v>759</v>
+        <v>264</v>
       </c>
       <c r="Q2" t="n">
         <v>1347</v>
       </c>
       <c r="R2" t="n">
-        <v>714</v>
+        <v>806</v>
       </c>
       <c r="S2" t="n">
-        <v>849</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="3">
@@ -611,10 +611,10 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -644,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -654,58 +654,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>126055</v>
+        <v>37113</v>
       </c>
       <c r="C4" t="n">
-        <v>107943</v>
+        <v>30208</v>
       </c>
       <c r="D4" t="n">
-        <v>107136</v>
+        <v>22366</v>
       </c>
       <c r="E4" t="n">
-        <v>126055</v>
+        <v>37113</v>
       </c>
       <c r="F4" t="n">
-        <v>96640</v>
+        <v>25696</v>
       </c>
       <c r="G4" t="n">
-        <v>88097</v>
+        <v>24491</v>
       </c>
       <c r="H4" t="n">
-        <v>149389</v>
+        <v>45435</v>
       </c>
       <c r="I4" t="n">
-        <v>131396</v>
+        <v>41967</v>
       </c>
       <c r="J4" t="n">
-        <v>157295</v>
+        <v>39198</v>
       </c>
       <c r="K4" t="n">
-        <v>126055</v>
+        <v>78945</v>
       </c>
       <c r="L4" t="n">
-        <v>99937</v>
+        <v>66448</v>
       </c>
       <c r="M4" t="n">
-        <v>116055</v>
+        <v>61572</v>
       </c>
       <c r="N4" t="n">
-        <v>126055</v>
+        <v>43136</v>
       </c>
       <c r="O4" t="n">
-        <v>102786</v>
+        <v>47293</v>
       </c>
       <c r="P4" t="n">
-        <v>107617</v>
+        <v>36807</v>
       </c>
       <c r="Q4" t="n">
         <v>149389</v>
       </c>
       <c r="R4" t="n">
-        <v>111663</v>
+        <v>109677</v>
       </c>
       <c r="S4" t="n">
-        <v>105303</v>
+        <v>121403</v>
       </c>
     </row>
     <row r="5">
@@ -727,10 +727,10 @@
         <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
@@ -739,16 +739,16 @@
         <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
         <v>3</v>
@@ -766,7 +766,7 @@
         <v>3</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -776,58 +776,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10789</v>
+        <v>10729</v>
       </c>
       <c r="C6" t="n">
-        <v>11097</v>
+        <v>8354</v>
       </c>
       <c r="D6" t="n">
-        <v>10863</v>
+        <v>8756</v>
       </c>
       <c r="E6" t="n">
-        <v>7310</v>
+        <v>7209</v>
       </c>
       <c r="F6" t="n">
-        <v>6341</v>
+        <v>3842</v>
       </c>
       <c r="G6" t="n">
-        <v>4983</v>
+        <v>4188</v>
       </c>
       <c r="H6" t="n">
-        <v>15872</v>
+        <v>15613</v>
       </c>
       <c r="I6" t="n">
-        <v>14475</v>
+        <v>14832</v>
       </c>
       <c r="J6" t="n">
-        <v>21338</v>
+        <v>15061</v>
       </c>
       <c r="K6" t="n">
-        <v>10789</v>
+        <v>10729</v>
       </c>
       <c r="L6" t="n">
-        <v>9434</v>
+        <v>9278</v>
       </c>
       <c r="M6" t="n">
-        <v>12125</v>
+        <v>10336</v>
       </c>
       <c r="N6" t="n">
-        <v>10789</v>
+        <v>10729</v>
       </c>
       <c r="O6" t="n">
-        <v>9809</v>
+        <v>8903</v>
       </c>
       <c r="P6" t="n">
-        <v>10268</v>
+        <v>9241</v>
       </c>
       <c r="Q6" t="n">
         <v>10977</v>
       </c>
       <c r="R6" t="n">
-        <v>8521</v>
+        <v>7513</v>
       </c>
       <c r="S6" t="n">
-        <v>7881</v>
+        <v>9513</v>
       </c>
     </row>
     <row r="7">
@@ -879,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>2</v>
